--- a/283-scenario-manquant-modification-donnees-capacitaires/ig/StructureDefinition-ror-practitionerrole-unit-exercise-mode.xlsx
+++ b/283-scenario-manquant-modification-donnees-capacitaires/ig/StructureDefinition-ror-practitionerrole-unit-exercise-mode.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-06T18:13:55+00:00</t>
+    <t>2024-02-08T08:49:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
